--- a/GUI + Reviews/202507/Eurozone 300.xlsx
+++ b/GUI + Reviews/202507/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202507/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45DB015-7D59-4882-818F-A452D7161859}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>AENA SME</t>
   </si>
   <si>
-    <t>ES0105046009</t>
-  </si>
-  <si>
     <t>AGS-BE</t>
   </si>
   <si>
@@ -2826,6 +2823,9 @@
   </si>
   <si>
     <t>DE000ZAL1111</t>
+  </si>
+  <si>
+    <t>ES0105046017</t>
   </si>
 </sst>
 </file>
@@ -3223,29 +3223,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S301" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5E1A9952-AEA3-4A93-AE15-5CEB76544A6A}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{40EDE445-637D-4570-9766-C361C58E3D45}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F73B0E2F-5BE5-41A7-91E4-E15B496907E3}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{965676E4-B94A-4A1F-9DB9-3E51A3235E79}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{043010E7-CEA4-44D6-A542-24038BE7B35C}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9017C1FC-534E-4769-850B-E05CA2AED8FA}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{342ED973-AFA5-4741-9751-98DB91FCFEEC}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D7142682-FB62-4E70-8402-3D21FE66D792}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{762DCAEC-45E5-45A5-910E-1D5857F927F3}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{30961EA6-C78F-4D79-A291-F6F523274217}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{E0078929-EF4F-4BD5-947B-3736D3D8D69D}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9881CE0B-A472-420F-9D8D-210C3BF81E41}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{3FBEE8DF-0413-4812-84CF-3C5B4C5CBAA0}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{E1CABBA0-0053-48BE-B400-84431DA32189}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{B8AA8BED-823D-4C1D-90D0-7B9B91946033}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F588D7B9-BF5F-4592-9725-4CF305652B42}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{0A73FEE7-B5DF-4F55-BF38-51AE65BBAA52}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{1E1F4DE7-704E-48C8-AA9A-FD449BAAF723}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{115C5DB2-CD8C-4451-8B52-F66468738B9D}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5E1A9952-AEA3-4A93-AE15-5CEB76544A6A}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{40EDE445-637D-4570-9766-C361C58E3D45}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F73B0E2F-5BE5-41A7-91E4-E15B496907E3}" name="Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{965676E4-B94A-4A1F-9DB9-3E51A3235E79}" name="ISIN" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{043010E7-CEA4-44D6-A542-24038BE7B35C}" name="MIC" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{9017C1FC-534E-4769-850B-E05CA2AED8FA}" name="NOSH" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{342ED973-AFA5-4741-9751-98DB91FCFEEC}" name="Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{D7142682-FB62-4E70-8402-3D21FE66D792}" name="Currency" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{762DCAEC-45E5-45A5-910E-1D5857F927F3}" name="12 month aver. turnover EUR" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{30961EA6-C78F-4D79-A291-F6F523274217}" name="20 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{E0078929-EF4F-4BD5-947B-3736D3D8D69D}" name="10 days aver. turn EUR" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{9881CE0B-A472-420F-9D8D-210C3BF81E41}" name="5 days aver. turn EUR" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{3FBEE8DF-0413-4812-84CF-3C5B4C5CBAA0}" name="6 month aver. turnover EUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E1CABBA0-0053-48BE-B400-84431DA32189}" name="126 days volatility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{B8AA8BED-823D-4C1D-90D0-7B9B91946033}" name="100 days volatility" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F588D7B9-BF5F-4592-9725-4CF305652B42}" name="100 days aver. turn EUR" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{0A73FEE7-B5DF-4F55-BF38-51AE65BBAA52}" name="180 days volatility" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{1E1F4DE7-704E-48C8-AA9A-FD449BAAF723}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{115C5DB2-CD8C-4451-8B52-F66468738B9D}" name="3 months aver. Turnover USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,7 +3574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9F2679-BD87-4753-BEF9-F9AB29999A27}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4378,7 +4384,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>929</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -4427,13 +4433,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
@@ -4482,13 +4488,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>27</v>
@@ -4537,16 +4543,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="1">
         <v>2136766718</v>
@@ -4592,13 +4598,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
@@ -4647,13 +4653,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -4702,13 +4708,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
@@ -4757,13 +4763,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
@@ -4812,13 +4818,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
@@ -4867,13 +4873,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>42</v>
@@ -4922,13 +4928,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -4977,13 +4983,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
@@ -5032,13 +5038,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -5087,13 +5093,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>42</v>
@@ -5142,16 +5148,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F29" s="1">
         <v>104000000</v>
@@ -5197,13 +5203,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>27</v>
@@ -5252,13 +5258,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>27</v>
@@ -5307,13 +5313,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>31</v>
@@ -5362,13 +5368,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>42</v>
@@ -5417,13 +5423,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>27</v>
@@ -5472,13 +5478,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>27</v>
@@ -5527,13 +5533,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>27</v>
@@ -5582,13 +5588,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>52</v>
@@ -5637,13 +5643,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>42</v>
@@ -5692,13 +5698,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
@@ -5747,13 +5753,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>31</v>
@@ -5802,13 +5808,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -5857,16 +5863,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F42" s="1">
         <v>15113989952</v>
@@ -5912,13 +5918,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>22</v>
@@ -5967,13 +5973,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>22</v>
@@ -6022,13 +6028,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
@@ -6077,13 +6083,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>22</v>
@@ -6132,13 +6138,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>38</v>
@@ -6187,13 +6193,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>38</v>
@@ -6242,16 +6248,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="1">
         <v>979485980</v>
@@ -6297,13 +6303,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>38</v>
@@ -6352,13 +6358,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>52</v>
@@ -6407,16 +6413,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="1">
         <v>78600000</v>
@@ -6462,13 +6468,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>52</v>
@@ -6517,13 +6523,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
@@ -6572,13 +6578,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>22</v>
@@ -6627,13 +6633,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>27</v>
@@ -6682,13 +6688,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>52</v>
@@ -6737,13 +6743,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>52</v>
@@ -6792,13 +6798,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>52</v>
@@ -6847,13 +6853,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>42</v>
@@ -6902,13 +6908,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>52</v>
@@ -6957,13 +6963,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>42</v>
@@ -7012,13 +7018,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>42</v>
@@ -7067,13 +7073,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>42</v>
@@ -7122,13 +7128,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>22</v>
@@ -7177,13 +7183,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>52</v>
@@ -7232,13 +7238,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>22</v>
@@ -7287,13 +7293,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>42</v>
@@ -7342,13 +7348,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>22</v>
@@ -7397,13 +7403,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>38</v>
@@ -7452,13 +7458,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>22</v>
@@ -7507,13 +7513,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>42</v>
@@ -7562,13 +7568,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>42</v>
@@ -7617,13 +7623,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>38</v>
@@ -7672,13 +7678,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>31</v>
@@ -7727,13 +7733,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>52</v>
@@ -7782,13 +7788,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>52</v>
@@ -7837,13 +7843,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>38</v>
@@ -7892,13 +7898,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>52</v>
@@ -7947,13 +7953,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>42</v>
@@ -8002,13 +8008,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>42</v>
@@ -8057,13 +8063,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>27</v>
@@ -8112,13 +8118,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>52</v>
@@ -8167,13 +8173,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>27</v>
@@ -8222,13 +8228,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>52</v>
@@ -8277,13 +8283,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>42</v>
@@ -8332,13 +8338,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>42</v>
@@ -8387,13 +8393,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>42</v>
@@ -8442,13 +8448,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>52</v>
@@ -8497,13 +8503,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>52</v>
@@ -8552,13 +8558,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>52</v>
@@ -8607,13 +8613,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>52</v>
@@ -8662,13 +8668,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>52</v>
@@ -8717,13 +8723,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>22</v>
@@ -8772,13 +8778,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>31</v>
@@ -8827,13 +8833,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>27</v>
@@ -8882,13 +8888,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>52</v>
@@ -8937,13 +8943,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>42</v>
@@ -8992,16 +8998,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F99" s="1">
         <v>4184021624</v>
@@ -9047,16 +9053,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F100" s="1">
         <v>1051033116</v>
@@ -9102,13 +9108,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>42</v>
@@ -9157,13 +9163,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>31</v>
@@ -9212,13 +9218,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>42</v>
@@ -9267,16 +9273,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="F104" s="1">
         <v>167335070</v>
@@ -9322,13 +9328,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>38</v>
@@ -9377,13 +9383,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>38</v>
@@ -9432,13 +9438,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>22</v>
@@ -9487,13 +9493,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>42</v>
@@ -9542,13 +9548,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>22</v>
@@ -9597,16 +9603,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F110" s="1">
         <v>410514370</v>
@@ -9652,13 +9658,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>42</v>
@@ -9707,13 +9713,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>42</v>
@@ -9762,13 +9768,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>42</v>
@@ -9817,13 +9823,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>42</v>
@@ -9872,13 +9878,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>52</v>
@@ -9927,13 +9933,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>27</v>
@@ -9982,13 +9988,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>42</v>
@@ -10037,13 +10043,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>22</v>
@@ -10092,13 +10098,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>38</v>
@@ -10147,13 +10153,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>22</v>
@@ -10202,13 +10208,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>52</v>
@@ -10257,16 +10263,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F122" s="1">
         <v>897264470</v>
@@ -10312,13 +10318,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>52</v>
@@ -10367,13 +10373,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>52</v>
@@ -10422,13 +10428,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>52</v>
@@ -10477,13 +10483,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>52</v>
@@ -10532,13 +10538,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>52</v>
@@ -10587,16 +10593,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F128" s="1">
         <v>695415645</v>
@@ -10642,13 +10648,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>31</v>
@@ -10697,13 +10703,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>52</v>
@@ -10752,13 +10758,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>42</v>
@@ -10807,13 +10813,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>22</v>
@@ -10862,13 +10868,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>42</v>
@@ -10917,16 +10923,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F134" s="1">
         <v>255562399</v>
@@ -10972,13 +10978,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>38</v>
@@ -11027,13 +11033,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>38</v>
@@ -11082,13 +11088,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>42</v>
@@ -11137,13 +11143,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>27</v>
@@ -11192,13 +11198,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>52</v>
@@ -11247,13 +11253,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>52</v>
@@ -11302,13 +11308,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>27</v>
@@ -11357,13 +11363,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>52</v>
@@ -11412,13 +11418,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>52</v>
@@ -11467,13 +11473,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>22</v>
@@ -11522,13 +11528,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>42</v>
@@ -11577,13 +11583,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>52</v>
@@ -11632,16 +11638,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F147" s="1">
         <v>107760380</v>
@@ -11687,13 +11693,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>38</v>
@@ -11742,13 +11748,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>27</v>
@@ -11797,13 +11803,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>38</v>
@@ -11852,13 +11858,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>38</v>
@@ -11907,13 +11913,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>52</v>
@@ -11962,13 +11968,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>27</v>
@@ -12017,13 +12023,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>27</v>
@@ -12072,13 +12078,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>22</v>
@@ -12127,13 +12133,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>22</v>
@@ -12182,13 +12188,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>22</v>
@@ -12237,13 +12243,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>42</v>
@@ -12292,13 +12298,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>22</v>
@@ -12347,13 +12353,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>22</v>
@@ -12402,16 +12408,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F161" s="1">
         <v>629293220</v>
@@ -12457,13 +12463,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>27</v>
@@ -12512,13 +12518,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>27</v>
@@ -12567,13 +12573,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>52</v>
@@ -12622,13 +12628,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>31</v>
@@ -12677,16 +12683,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F166" s="1">
         <v>155342560</v>
@@ -12732,13 +12738,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>42</v>
@@ -12787,16 +12793,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="E168" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F168" s="1">
         <v>164822119</v>
@@ -12842,16 +12848,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F169" s="1">
         <v>273130980</v>
@@ -12897,16 +12903,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F170" s="1">
         <v>182054597</v>
@@ -12952,13 +12958,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>52</v>
@@ -13007,13 +13013,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>42</v>
@@ -13062,13 +13068,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>52</v>
@@ -13117,16 +13123,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F174" s="1">
         <v>453187130</v>
@@ -13172,16 +13178,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F175" s="1">
         <v>79221900</v>
@@ -13227,13 +13233,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>27</v>
@@ -13282,13 +13288,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>52</v>
@@ -13337,13 +13343,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>52</v>
@@ -13392,13 +13398,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>42</v>
@@ -13447,13 +13453,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>22</v>
@@ -13502,13 +13508,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>42</v>
@@ -13557,13 +13563,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>22</v>
@@ -13612,13 +13618,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>31</v>
@@ -13667,13 +13673,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>52</v>
@@ -13722,13 +13728,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>42</v>
@@ -13777,16 +13783,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F186" s="1">
         <v>502696750</v>
@@ -13832,13 +13838,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>22</v>
@@ -13887,13 +13893,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>52</v>
@@ -13942,13 +13948,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>52</v>
@@ -13997,13 +14003,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>38</v>
@@ -14052,16 +14058,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F191" s="1">
         <v>828972400</v>
@@ -14107,13 +14113,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>42</v>
@@ -14162,13 +14168,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>22</v>
@@ -14217,13 +14223,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>52</v>
@@ -14272,13 +14278,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>52</v>
@@ -14327,13 +14333,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>38</v>
@@ -14382,13 +14388,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>52</v>
@@ -14437,16 +14443,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="E198" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F198" s="1">
         <v>769211060</v>
@@ -14492,13 +14498,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>42</v>
@@ -14547,13 +14553,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>22</v>
@@ -14602,13 +14608,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>27</v>
@@ -14657,16 +14663,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="E202" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F202" s="1">
         <v>5455850600</v>
@@ -14712,16 +14718,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F203" s="1">
         <v>3480581000</v>
@@ -14767,13 +14773,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>52</v>
@@ -14822,16 +14828,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F205" s="1">
         <v>327272740</v>
@@ -14877,13 +14883,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>42</v>
@@ -14932,16 +14938,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="E207" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F207" s="1">
         <v>108683530</v>
@@ -14987,13 +14993,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>42</v>
@@ -15042,13 +15048,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>27</v>
@@ -15097,13 +15103,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>22</v>
@@ -15152,13 +15158,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>52</v>
@@ -15207,13 +15213,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>52</v>
@@ -15262,13 +15268,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>22</v>
@@ -15317,13 +15323,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>27</v>
@@ -15372,13 +15378,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>22</v>
@@ -15427,13 +15433,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>42</v>
@@ -15482,13 +15488,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>52</v>
@@ -15537,13 +15543,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>52</v>
@@ -15592,16 +15598,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F219" s="1">
         <v>328939640</v>
@@ -15647,13 +15653,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>27</v>
@@ -15702,13 +15708,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>52</v>
@@ -15757,13 +15763,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>22</v>
@@ -15812,13 +15818,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>38</v>
@@ -15867,13 +15873,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>27</v>
@@ -15922,13 +15928,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>42</v>
@@ -15977,13 +15983,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>52</v>
@@ -16032,13 +16038,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>22</v>
@@ -16087,13 +16093,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>38</v>
@@ -16142,13 +16148,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>42</v>
@@ -16197,13 +16203,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>52</v>
@@ -16252,13 +16258,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>42</v>
@@ -16307,13 +16313,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>52</v>
@@ -16362,16 +16368,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F233" s="1">
         <v>1063190350</v>
@@ -16417,13 +16423,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>42</v>
@@ -16472,13 +16478,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>42</v>
@@ -16527,13 +16533,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>42</v>
@@ -16582,13 +16588,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>22</v>
@@ -16637,16 +16643,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="E238" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F238" s="1">
         <v>2690238800</v>
@@ -16692,13 +16698,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>42</v>
@@ -16747,13 +16753,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>52</v>
@@ -16802,13 +16808,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>52</v>
@@ -16857,13 +16863,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>42</v>
@@ -16912,13 +16918,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>27</v>
@@ -16967,13 +16973,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>52</v>
@@ -17022,13 +17028,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>42</v>
@@ -17077,13 +17083,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>42</v>
@@ -17132,13 +17138,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>52</v>
@@ -17187,13 +17193,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>27</v>
@@ -17242,13 +17248,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>52</v>
@@ -17297,13 +17303,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>52</v>
@@ -17352,13 +17358,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>52</v>
@@ -17407,13 +17413,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>27</v>
@@ -17462,13 +17468,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>22</v>
@@ -17517,13 +17523,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>42</v>
@@ -17572,13 +17578,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>42</v>
@@ -17627,13 +17633,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>31</v>
@@ -17682,13 +17688,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>42</v>
@@ -17737,13 +17743,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>42</v>
@@ -17792,13 +17798,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>22</v>
@@ -17847,13 +17853,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>42</v>
@@ -17902,16 +17908,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="E261" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F261" s="1">
         <v>613067700</v>
@@ -17957,13 +17963,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>31</v>
@@ -18012,13 +18018,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>52</v>
@@ -18067,13 +18073,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>52</v>
@@ -18122,13 +18128,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>821</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>52</v>
@@ -18177,13 +18183,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>42</v>
@@ -18232,13 +18238,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>22</v>
@@ -18287,13 +18293,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>38</v>
@@ -18342,13 +18348,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>42</v>
@@ -18397,13 +18403,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>22</v>
@@ -18452,13 +18458,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>22</v>
@@ -18507,13 +18513,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>42</v>
@@ -18562,13 +18568,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>52</v>
@@ -18617,13 +18623,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>42</v>
@@ -18672,13 +18678,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>31</v>
@@ -18727,13 +18733,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>52</v>
@@ -18782,13 +18788,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>31</v>
@@ -18837,13 +18843,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>27</v>
@@ -18892,13 +18898,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>42</v>
@@ -18947,13 +18953,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>22</v>
@@ -19002,13 +19008,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>27</v>
@@ -19057,13 +19063,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>22</v>
@@ -19112,16 +19118,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F283" s="1">
         <v>527735700</v>
@@ -19167,13 +19173,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>42</v>
@@ -19222,16 +19228,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="E285" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F285" s="1">
         <v>184529600</v>
@@ -19277,13 +19283,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>42</v>
@@ -19332,16 +19338,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="E287" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F287" s="1">
         <v>170233670</v>
@@ -19387,13 +19393,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>38</v>
@@ -19442,13 +19448,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>42</v>
@@ -19497,13 +19503,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>38</v>
@@ -19552,13 +19558,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>42</v>
@@ -19607,16 +19613,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="E292" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F292" s="1">
         <v>178549160</v>
@@ -19662,13 +19668,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>52</v>
@@ -19717,13 +19723,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>52</v>
@@ -19772,13 +19778,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>27</v>
@@ -19827,16 +19833,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>914</v>
-      </c>
       <c r="E296" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F296" s="1">
         <v>591723400</v>
@@ -19882,13 +19888,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>31</v>
@@ -19937,13 +19943,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>42</v>
@@ -19992,16 +19998,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="E299" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F299" s="1">
         <v>109497696</v>
@@ -20047,13 +20053,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>27</v>
@@ -20102,13 +20108,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>52</v>
